--- a/V1000_Drive_Programmer/data/MOTOR_DATA.xlsx
+++ b/V1000_Drive_Programmer/data/MOTOR_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="4725" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,52 +32,52 @@
     <t>MOTOR_PARTNUM</t>
   </si>
   <si>
-    <t>FLA_200_50</t>
-  </si>
-  <si>
-    <t>FLA_220_50</t>
-  </si>
-  <si>
-    <t>FLA_220_60</t>
-  </si>
-  <si>
-    <t>FLA_200_60</t>
-  </si>
-  <si>
-    <t>FLA_208_50</t>
-  </si>
-  <si>
-    <t>FLA_208_60</t>
-  </si>
-  <si>
-    <t>FLA_230_50</t>
-  </si>
-  <si>
-    <t>FLA_230_60</t>
-  </si>
-  <si>
-    <t>FLA_240_50</t>
-  </si>
-  <si>
-    <t>FLA_240_60</t>
-  </si>
-  <si>
-    <t>FLA_380_50</t>
-  </si>
-  <si>
-    <t>FLA_380_60</t>
-  </si>
-  <si>
-    <t>FLA_400_50</t>
-  </si>
-  <si>
-    <t>FLA_415_50</t>
-  </si>
-  <si>
-    <t>FLA_460_60</t>
-  </si>
-  <si>
-    <t>FLA_575_60</t>
+    <t>FLC_200_50</t>
+  </si>
+  <si>
+    <t>FLC_200_60</t>
+  </si>
+  <si>
+    <t>FLC_208_50</t>
+  </si>
+  <si>
+    <t>FLC_208_60</t>
+  </si>
+  <si>
+    <t>FLC_220_50</t>
+  </si>
+  <si>
+    <t>FLC_220_60</t>
+  </si>
+  <si>
+    <t>FLC_230_50</t>
+  </si>
+  <si>
+    <t>FLC_230_60</t>
+  </si>
+  <si>
+    <t>FLC_240_50</t>
+  </si>
+  <si>
+    <t>FLC_240_60</t>
+  </si>
+  <si>
+    <t>FLC_380_50</t>
+  </si>
+  <si>
+    <t>FLC_380_60</t>
+  </si>
+  <si>
+    <t>FLC_400_50</t>
+  </si>
+  <si>
+    <t>FLC_415_50</t>
+  </si>
+  <si>
+    <t>FLC_460_60</t>
+  </si>
+  <si>
+    <t>FLC_575_60</t>
   </si>
 </sst>
 </file>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,19 +417,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -460,6 +460,1014 @@
       </c>
       <c r="R1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>51067</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3.8</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3.8</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>3.8</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>55090</v>
+      </c>
+      <c r="C3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <v>8.1</v>
+      </c>
+      <c r="H3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>80053</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>9.6</v>
+      </c>
+      <c r="E4">
+        <v>10.6</v>
+      </c>
+      <c r="F4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J4">
+        <v>8.4</v>
+      </c>
+      <c r="Q4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>80054</v>
+      </c>
+      <c r="G5">
+        <v>7.5</v>
+      </c>
+      <c r="H5">
+        <v>6.6</v>
+      </c>
+      <c r="I5">
+        <v>7.8</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>80486</v>
+      </c>
+      <c r="C6">
+        <v>11.8</v>
+      </c>
+      <c r="D6">
+        <v>10.6</v>
+      </c>
+      <c r="E6">
+        <v>11.4</v>
+      </c>
+      <c r="F6">
+        <v>10.4</v>
+      </c>
+      <c r="H6">
+        <v>10.1</v>
+      </c>
+      <c r="J6">
+        <v>9.9</v>
+      </c>
+      <c r="L6">
+        <v>9.6</v>
+      </c>
+      <c r="O6">
+        <v>5.9</v>
+      </c>
+      <c r="P6">
+        <v>5.7</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>80487</v>
+      </c>
+      <c r="G7">
+        <v>12.1</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>11.8</v>
+      </c>
+      <c r="K7">
+        <v>11.4</v>
+      </c>
+      <c r="M7">
+        <v>7.2</v>
+      </c>
+      <c r="N7">
+        <v>5.95</v>
+      </c>
+      <c r="O7">
+        <v>6.97</v>
+      </c>
+      <c r="P7">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>49619</v>
+      </c>
+      <c r="C8">
+        <v>17.3</v>
+      </c>
+      <c r="D8">
+        <v>14.7</v>
+      </c>
+      <c r="E8">
+        <v>18.2</v>
+      </c>
+      <c r="F8">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49882</v>
+      </c>
+      <c r="G9">
+        <v>14.4</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>14.8</v>
+      </c>
+      <c r="K9">
+        <v>15.2</v>
+      </c>
+      <c r="M9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N9">
+        <v>7.5</v>
+      </c>
+      <c r="O9">
+        <v>8.59</v>
+      </c>
+      <c r="P9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>49620</v>
+      </c>
+      <c r="F10">
+        <v>13.8</v>
+      </c>
+      <c r="H10">
+        <v>13.36</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>13752</v>
+      </c>
+      <c r="G11">
+        <v>6.1</v>
+      </c>
+      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="I11">
+        <v>6.25</v>
+      </c>
+      <c r="K11">
+        <v>6.4</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <v>3.2</v>
+      </c>
+      <c r="O11">
+        <v>3.61</v>
+      </c>
+      <c r="P11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13754</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5.7</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>5.62</v>
+      </c>
+      <c r="H12">
+        <v>5.48</v>
+      </c>
+      <c r="J12">
+        <v>5.4</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>17549</v>
+      </c>
+      <c r="G13">
+        <v>6.1</v>
+      </c>
+      <c r="H13">
+        <v>5.5</v>
+      </c>
+      <c r="I13">
+        <v>6.25</v>
+      </c>
+      <c r="K13">
+        <v>6.4</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>3.2</v>
+      </c>
+      <c r="O13">
+        <v>3.61</v>
+      </c>
+      <c r="P13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17550</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>5.7</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>5.62</v>
+      </c>
+      <c r="H14">
+        <v>5.48</v>
+      </c>
+      <c r="J14">
+        <v>5.4</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>27378</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>4.5</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>4.5</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>27379</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E16">
+        <v>11.6</v>
+      </c>
+      <c r="F16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M16">
+        <v>6.4</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>27381</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>4.5</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>4.5</v>
+      </c>
+      <c r="O17">
+        <v>2.5</v>
+      </c>
+      <c r="P17">
+        <v>2.5</v>
+      </c>
+      <c r="Q17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>27382</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E18">
+        <v>11.6</v>
+      </c>
+      <c r="F18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M18">
+        <v>6.4</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>39338</v>
+      </c>
+      <c r="C19">
+        <v>3.2</v>
+      </c>
+      <c r="F19">
+        <v>2.8</v>
+      </c>
+      <c r="H19">
+        <v>2.91</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>1.6</v>
+      </c>
+      <c r="Q19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>39339</v>
+      </c>
+      <c r="G20">
+        <v>2.8</v>
+      </c>
+      <c r="H20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I20">
+        <v>2.85</v>
+      </c>
+      <c r="J20">
+        <v>2.35</v>
+      </c>
+      <c r="K20">
+        <v>2.9</v>
+      </c>
+      <c r="L20">
+        <v>2.4</v>
+      </c>
+      <c r="M20">
+        <v>1.6</v>
+      </c>
+      <c r="N20">
+        <v>1.3</v>
+      </c>
+      <c r="O20">
+        <v>1.66</v>
+      </c>
+      <c r="P20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>93409</v>
+      </c>
+      <c r="C21">
+        <v>5.9</v>
+      </c>
+      <c r="E21">
+        <v>5.69</v>
+      </c>
+      <c r="G21">
+        <v>5.37</v>
+      </c>
+      <c r="H21">
+        <v>5.4</v>
+      </c>
+      <c r="I21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J21">
+        <v>5.2</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="O21">
+        <v>2.96</v>
+      </c>
+      <c r="P21">
+        <v>2.85</v>
+      </c>
+      <c r="Q21">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>48582</v>
+      </c>
+      <c r="C22">
+        <v>19.8</v>
+      </c>
+      <c r="D22">
+        <v>16.8</v>
+      </c>
+      <c r="E22">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>16.21</v>
+      </c>
+      <c r="H22">
+        <v>15.33</v>
+      </c>
+      <c r="J22">
+        <v>14.6</v>
+      </c>
+      <c r="Q22">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>48583</v>
+      </c>
+      <c r="G23">
+        <v>14.7</v>
+      </c>
+      <c r="H23">
+        <v>14.2</v>
+      </c>
+      <c r="I23">
+        <v>14.8</v>
+      </c>
+      <c r="K23">
+        <v>14.9</v>
+      </c>
+      <c r="M23">
+        <v>8.5</v>
+      </c>
+      <c r="N23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O23">
+        <v>8.56</v>
+      </c>
+      <c r="P23">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>51690</v>
+      </c>
+      <c r="G24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H24">
+        <v>8.1</v>
+      </c>
+      <c r="I24">
+        <v>9.15</v>
+      </c>
+      <c r="K24">
+        <v>9.5</v>
+      </c>
+      <c r="M24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N24">
+        <v>4.7</v>
+      </c>
+      <c r="O24">
+        <v>5.33</v>
+      </c>
+      <c r="P24">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>51691</v>
+      </c>
+      <c r="C25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D25">
+        <v>8.6</v>
+      </c>
+      <c r="E25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F25">
+        <v>8.44</v>
+      </c>
+      <c r="H25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>42579</v>
+      </c>
+      <c r="C26">
+        <v>14.8</v>
+      </c>
+      <c r="E26">
+        <v>14.59</v>
+      </c>
+      <c r="G26">
+        <v>14.27</v>
+      </c>
+      <c r="H26">
+        <v>14.4</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>14.1</v>
+      </c>
+      <c r="L26">
+        <v>13.8</v>
+      </c>
+      <c r="M26">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O26">
+        <v>7.9</v>
+      </c>
+      <c r="P26">
+        <v>7.6</v>
+      </c>
+      <c r="Q26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>42580</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>42581</v>
+      </c>
+      <c r="N28">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>58224</v>
+      </c>
+      <c r="C29">
+        <v>4.2</v>
+      </c>
+      <c r="E29">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G29">
+        <v>3.85</v>
+      </c>
+      <c r="I29">
+        <v>3.68</v>
+      </c>
+      <c r="K29">
+        <v>3.5</v>
+      </c>
+      <c r="M29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N29">
+        <v>1.9</v>
+      </c>
+      <c r="O29">
+        <v>2.09</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>58225</v>
+      </c>
+      <c r="D30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F30">
+        <v>4.74</v>
+      </c>
+      <c r="H30">
+        <v>4.51</v>
+      </c>
+      <c r="J30">
+        <v>4.32</v>
+      </c>
+      <c r="L30">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>58393</v>
+      </c>
+      <c r="C31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I31">
+        <v>8.18</v>
+      </c>
+      <c r="K31">
+        <v>7.8</v>
+      </c>
+      <c r="M31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O31">
+        <v>4.67</v>
+      </c>
+      <c r="P31">
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>58394</v>
+      </c>
+      <c r="D32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J32">
+        <v>8.18</v>
+      </c>
+      <c r="L32">
+        <v>7.8</v>
+      </c>
+      <c r="Q32">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>60684</v>
+      </c>
+      <c r="C33">
+        <v>5.8</v>
+      </c>
+      <c r="F33">
+        <v>6.2</v>
+      </c>
+      <c r="H33">
+        <v>5.98</v>
+      </c>
+      <c r="J33">
+        <v>5.8</v>
+      </c>
+      <c r="M33">
+        <v>2.9</v>
+      </c>
+      <c r="O33">
+        <v>2.9</v>
+      </c>
+      <c r="P33">
+        <v>2.9</v>
+      </c>
+      <c r="Q33">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>60685</v>
+      </c>
+      <c r="C34">
+        <v>5.8</v>
+      </c>
+      <c r="F34">
+        <v>6.2</v>
+      </c>
+      <c r="H34">
+        <v>5.98</v>
+      </c>
+      <c r="J34">
+        <v>5.8</v>
+      </c>
+      <c r="M34">
+        <v>2.9</v>
+      </c>
+      <c r="O34">
+        <v>2.9</v>
+      </c>
+      <c r="P34">
+        <v>2.9</v>
+      </c>
+      <c r="Q34">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/V1000_Drive_Programmer/data/MOTOR_DATA.xlsx
+++ b/V1000_Drive_Programmer/data/MOTOR_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="16065" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,11 +393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
     <col min="3" max="32" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -517,34 +517,34 @@
         <v>55090</v>
       </c>
       <c r="C3">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="E3">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="F3">
         <v>8.1</v>
       </c>
       <c r="H3">
-        <v>8.0500000000000007</v>
+        <v>8.05</v>
       </c>
       <c r="J3">
         <v>8</v>
       </c>
       <c r="M3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="O3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="Q3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -561,10 +561,10 @@
         <v>10.6</v>
       </c>
       <c r="F4">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="H4">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="J4">
         <v>8.4</v>
@@ -573,7 +573,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -596,7 +596,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -686,7 +686,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -706,7 +706,7 @@
         <v>15.2</v>
       </c>
       <c r="M9">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="N9">
         <v>7.5</v>
@@ -715,10 +715,10 @@
         <v>8.59</v>
       </c>
       <c r="P9">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -738,7 +738,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -770,7 +770,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -802,7 +802,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -834,7 +834,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -895,7 +895,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row spans="1:18" x14ac:dyDescent="0.2" outlineLevel="0" r="16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -906,19 +906,19 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="E16">
         <v>11.6</v>
       </c>
       <c r="F16">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="G16">
         <v>11</v>
       </c>
       <c r="H16">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="M16">
         <v>6.4</v>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -967,19 +967,19 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="E18">
         <v>11.6</v>
       </c>
       <c r="F18">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="M18">
         <v>6.4</v>
@@ -988,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="19">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2.8</v>
       </c>
       <c r="H20">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
         <v>2.85</v>
@@ -1052,7 +1052,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="21">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>5.4</v>
       </c>
       <c r="I21">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="J21">
         <v>5.2</v>
@@ -1093,7 +1093,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="22">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>16.8</v>
       </c>
       <c r="E22">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="F22">
         <v>16.21</v>
@@ -1122,7 +1122,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="23">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>8.5</v>
       </c>
       <c r="N23">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="O23">
         <v>8.56</v>
@@ -1154,7 +1154,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="24">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>51690</v>
       </c>
       <c r="G24">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H24">
         <v>8.1</v>
@@ -1174,7 +1174,7 @@
         <v>9.5</v>
       </c>
       <c r="M24">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="N24">
         <v>4.7</v>
@@ -1186,7 +1186,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1194,19 +1194,19 @@
         <v>51691</v>
       </c>
       <c r="C25">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="D25">
         <v>8.6</v>
       </c>
       <c r="E25">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="F25">
         <v>8.44</v>
       </c>
       <c r="H25">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="J25">
         <v>8</v>
@@ -1215,7 +1215,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="26">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>13.8</v>
       </c>
       <c r="M26">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="O26">
         <v>7.9</v>
@@ -1256,7 +1256,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="27">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="28">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="29">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>4.2</v>
       </c>
       <c r="E29">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="G29">
         <v>3.85</v>
@@ -1304,7 +1304,7 @@
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
         <v>1.9</v>
@@ -1319,7 +1319,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="30">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>58225</v>
       </c>
       <c r="D30">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="F30">
         <v>4.74</v>
@@ -1342,7 +1342,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="31">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1350,13 +1350,13 @@
         <v>58393</v>
       </c>
       <c r="C31">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="G31">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="I31">
         <v>8.18</v>
@@ -1365,10 +1365,10 @@
         <v>7.8</v>
       </c>
       <c r="M31">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="N31">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="O31">
         <v>4.67</v>
@@ -1380,7 +1380,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="32">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1388,13 +1388,13 @@
         <v>58394</v>
       </c>
       <c r="D32">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="H32">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="J32">
         <v>8.18</v>
@@ -1406,7 +1406,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="33">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row spans="1:17" x14ac:dyDescent="0.2" outlineLevel="0" r="34">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1468,6 +1468,17 @@
       </c>
       <c r="Q34">
         <v>2.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0">
+        <v>16554</v>
+      </c>
+      <c r="H35" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
